--- a/subscription_report/subscriptions_by_creation_date/template.xlsx
+++ b/subscription_report/subscriptions_by_creation_date/template.xlsx
@@ -1,55 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ffaraone/work/python/connect-report-python-boilerplate/{{cookiecutter.project_slug}}/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\subscriptionsreportbycreationdate\subscription_report\subscriptions_by_creation_date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9281D8A2-E6CE-2A4F-8ABF-2B0CDA982936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277F4D6E-DDEF-4975-B319-DB203CA2A351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{02A40A1C-FB06-7D47-B2E1-C6FE1FD69E49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AH$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Request Type</t>
+  </si>
+  <si>
+    <t>Exported At</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Item Unit Of measure</t>
+  </si>
+  <si>
+    <t>Item MPN</t>
+  </si>
+  <si>
+    <t>Item Period</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer External ID</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Asset ID</t>
+  </si>
+  <si>
+    <t>Asset External ID</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Hub ID</t>
+  </si>
+  <si>
+    <t>Hub Name</t>
+  </si>
+  <si>
+    <t>Request Status</t>
+  </si>
+  <si>
+    <t>Tier 1 ID</t>
+  </si>
+  <si>
+    <t>Tier 1 Name</t>
+  </si>
+  <si>
+    <t>Tier 1 External ID</t>
+  </si>
+  <si>
+    <t>Tier 2 ID</t>
+  </si>
+  <si>
+    <t>Tier 2 Name</t>
+  </si>
+  <si>
+    <t>Tier 2 External ID</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Provider  ID</t>
+  </si>
+  <si>
+    <t>Provider Name</t>
+  </si>
+  <si>
+    <t>Created At</t>
+  </si>
+  <si>
+    <t>Updated At</t>
+  </si>
+  <si>
+    <t>Asset Reconciliation Param. Value</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,14 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -94,44 +197,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -158,32 +261,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -210,24 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -239,153 +306,318 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014AFB11-89EA-AC4E-B932-810939AFE8BD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="21.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="45.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="45.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="19.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="45.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="19.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="45.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="19.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="45.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="45.81640625" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="45.81640625" customWidth="1"/>
+    <col min="26" max="26" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="45.81640625" customWidth="1"/>
+    <col min="28" max="29" width="25.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="32" max="32" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="45.81640625" customWidth="1"/>
+    <col min="34" max="34" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AH1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/subscription_report/subscriptions_by_creation_date/template.xlsx
+++ b/subscription_report/subscriptions_by_creation_date/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\subscriptionsreportbycreationdate\subscription_report\subscriptions_by_creation_date\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ConnectCustomSubscriptionReport\subscription_report\subscriptions_by_creation_date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277F4D6E-DDEF-4975-B319-DB203CA2A351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DB3C8-3545-4960-BD72-0A8160EB0375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Request ID</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Transaction Type</t>
   </si>
   <si>
-    <t>Hub ID</t>
-  </si>
-  <si>
-    <t>Hub Name</t>
-  </si>
-  <si>
     <t>Request Status</t>
   </si>
   <si>
@@ -106,12 +100,6 @@
     <t>Tier 2 External ID</t>
   </si>
   <si>
-    <t>Vendor ID</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
     <t>Provider  ID</t>
   </si>
   <si>
@@ -125,6 +113,9 @@
   </si>
   <si>
     <t>Asset Reconciliation Param. Value</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
   </si>
 </sst>
 </file>
@@ -471,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -500,19 +491,15 @@
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="20" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="45.81640625" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="45.81640625" customWidth="1"/>
-    <col min="26" max="26" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="45.81640625" customWidth="1"/>
-    <col min="28" max="29" width="25.81640625" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="20" customWidth="1"/>
-    <col min="31" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="45.81640625" customWidth="1"/>
-    <col min="34" max="34" width="18.453125" customWidth="1"/>
+    <col min="24" max="25" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="45.81640625" customWidth="1"/>
+    <col min="27" max="28" width="25.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="20" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -559,65 +546,56 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
+  <autoFilter ref="A1:AE1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/subscription_report/subscriptions_by_creation_date/template.xlsx
+++ b/subscription_report/subscriptions_by_creation_date/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ConnectCustomSubscriptionReport\subscription_report\subscriptions_by_creation_date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DB3C8-3545-4960-BD72-0A8160EB0375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BF306-A539-4F2B-9AC5-91F5765DC8EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AB$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -464,16 +464,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="21.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="3" max="4" width="25.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="45.81640625" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="15" customWidth="1" outlineLevel="1"/>
@@ -493,10 +493,10 @@
     <col min="23" max="23" width="45.81640625" customWidth="1"/>
     <col min="24" max="25" width="20" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="45.81640625" customWidth="1"/>
-    <col min="27" max="28" width="25.81640625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="20" customWidth="1"/>
-    <col min="30" max="30" width="14" customWidth="1"/>
-    <col min="31" max="31" width="18.453125" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="18.453125" customWidth="1"/>
+    <col min="29" max="30" width="21.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
@@ -507,13 +507,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -579,23 +579,23 @@
         <v>14</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
+  <autoFilter ref="A1:AB1" xr:uid="{444A851A-3A6C-984B-A410-97137E4DF2E6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>